--- a/teaching/traditional_assets/database/data/malaysia/malaysia_aerospace_defense.xlsx
+++ b/teaching/traditional_assets/database/data/malaysia/malaysia_aerospace_defense.xlsx
@@ -591,28 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.193</v>
-      </c>
-      <c r="E2">
-        <v>-0.231</v>
+        <v>-0.0362</v>
       </c>
       <c r="G2">
-        <v>0.07940886699507389</v>
+        <v>-0.3274327122153209</v>
       </c>
       <c r="H2">
-        <v>0.07339901477832513</v>
+        <v>-0.3374741200828157</v>
       </c>
       <c r="I2">
-        <v>0.02820197044334975</v>
+        <v>-0.5403726708074534</v>
       </c>
       <c r="J2">
-        <v>0.01410098522167488</v>
+        <v>-0.5403726708074534</v>
       </c>
       <c r="K2">
-        <v>0.801</v>
+        <v>-66.59999999999999</v>
       </c>
       <c r="L2">
-        <v>0.009864532019704433</v>
+        <v>-1.37888198757764</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -621,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -630,76 +627,79 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>3.03</v>
+        <v>2.81</v>
       </c>
       <c r="V2">
-        <v>0.04570135746606335</v>
+        <v>0.02741463414634146</v>
       </c>
       <c r="W2">
-        <v>0.006528117359413203</v>
+        <v>-0.5485996705107083</v>
       </c>
       <c r="X2">
-        <v>0.1107252578938734</v>
+        <v>0.08339416810924212</v>
       </c>
       <c r="Y2">
-        <v>-0.1041971405344602</v>
+        <v>-0.6319938386199505</v>
       </c>
       <c r="Z2">
-        <v>0.5233644859813085</v>
+        <v>0.3222793087342363</v>
       </c>
       <c r="AA2">
-        <v>0.0073799548823719</v>
+        <v>-0.1741509308066991</v>
       </c>
       <c r="AB2">
-        <v>0.08681974287046174</v>
+        <v>0.06933017970230612</v>
       </c>
       <c r="AC2">
-        <v>-0.07943978798808983</v>
+        <v>-0.2434811105090053</v>
       </c>
       <c r="AD2">
-        <v>31.5</v>
+        <v>34.6</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>31.5</v>
+        <v>34.6</v>
       </c>
       <c r="AG2">
-        <v>28.47</v>
+        <v>31.79</v>
       </c>
       <c r="AH2">
-        <v>0.3220858895705522</v>
+        <v>0.2523705324580598</v>
       </c>
       <c r="AI2">
-        <v>0.2058823529411765</v>
+        <v>0.3537832310838446</v>
       </c>
       <c r="AJ2">
-        <v>0.3004115226337449</v>
+        <v>0.2367264874525281</v>
       </c>
       <c r="AK2">
-        <v>0.1898379675935187</v>
+        <v>0.3346668070323192</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AM2">
-        <v>-0.07199999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="AN2">
-        <v>5.459272097053726</v>
+        <v>-1.544642857142857</v>
+      </c>
+      <c r="AO2">
+        <v>-4.209677419354839</v>
       </c>
       <c r="AP2">
-        <v>4.934142114384749</v>
+        <v>-1.419196428571429</v>
       </c>
       <c r="AQ2">
-        <v>-31.80555555555556</v>
+        <v>-4.209677419354839</v>
       </c>
     </row>
     <row r="3">
@@ -719,28 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.193</v>
-      </c>
-      <c r="E3">
-        <v>-0.231</v>
+        <v>-0.0362</v>
       </c>
       <c r="G3">
-        <v>0.07940886699507389</v>
+        <v>-0.3274327122153209</v>
       </c>
       <c r="H3">
-        <v>0.07339901477832513</v>
+        <v>-0.3374741200828157</v>
       </c>
       <c r="I3">
-        <v>0.02820197044334975</v>
+        <v>-0.5403726708074534</v>
       </c>
       <c r="J3">
-        <v>0.01410098522167488</v>
+        <v>-0.5403726708074534</v>
       </c>
       <c r="K3">
-        <v>0.801</v>
+        <v>-66.59999999999999</v>
       </c>
       <c r="L3">
-        <v>0.009864532019704433</v>
+        <v>-1.37888198757764</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -749,7 +746,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -758,76 +755,79 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3.03</v>
+        <v>2.81</v>
       </c>
       <c r="V3">
-        <v>0.04570135746606335</v>
+        <v>0.02741463414634146</v>
       </c>
       <c r="W3">
-        <v>0.006528117359413203</v>
+        <v>-0.5485996705107083</v>
       </c>
       <c r="X3">
-        <v>0.1107252578938734</v>
+        <v>0.08339416810924212</v>
       </c>
       <c r="Y3">
-        <v>-0.1041971405344602</v>
+        <v>-0.6319938386199505</v>
       </c>
       <c r="Z3">
-        <v>0.5233644859813085</v>
+        <v>0.3222793087342363</v>
       </c>
       <c r="AA3">
-        <v>0.0073799548823719</v>
+        <v>-0.1741509308066991</v>
       </c>
       <c r="AB3">
-        <v>0.08681974287046174</v>
+        <v>0.06933017970230612</v>
       </c>
       <c r="AC3">
-        <v>-0.07943978798808983</v>
+        <v>-0.2434811105090053</v>
       </c>
       <c r="AD3">
-        <v>31.5</v>
+        <v>34.6</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>31.5</v>
+        <v>34.6</v>
       </c>
       <c r="AG3">
-        <v>28.47</v>
+        <v>31.79</v>
       </c>
       <c r="AH3">
-        <v>0.3220858895705522</v>
+        <v>0.2523705324580598</v>
       </c>
       <c r="AI3">
-        <v>0.2058823529411765</v>
+        <v>0.3537832310838446</v>
       </c>
       <c r="AJ3">
-        <v>0.3004115226337449</v>
+        <v>0.2367264874525281</v>
       </c>
       <c r="AK3">
-        <v>0.1898379675935187</v>
+        <v>0.3346668070323192</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AM3">
-        <v>-0.07199999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="AN3">
-        <v>5.459272097053726</v>
+        <v>-1.544642857142857</v>
+      </c>
+      <c r="AO3">
+        <v>-4.209677419354839</v>
       </c>
       <c r="AP3">
-        <v>4.934142114384749</v>
+        <v>-1.419196428571429</v>
       </c>
       <c r="AQ3">
-        <v>-31.80555555555556</v>
+        <v>-4.209677419354839</v>
       </c>
     </row>
   </sheetData>
